--- a/ftest/data/fm30/Worked example policy calculation_Min deductibles.xlsx
+++ b/ftest/data/fm30/Worked example policy calculation_Min deductibles.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\testgit\ktest\ftest\data\fm9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm9\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B3BC18D-94B8-461B-B262-C7DA8A2C4EE7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worked examples" sheetId="10" r:id="rId1"/>
     <sheet name="Oasis Implementation" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -400,7 +401,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
@@ -860,6 +861,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,17 +875,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Percent 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,6 +1039,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1073,6 +1091,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1248,44 +1283,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>64</v>
       </c>
@@ -1301,7 +1336,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>100</v>
       </c>
@@ -1321,7 +1356,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28" t="s">
@@ -1337,7 +1372,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>68</v>
       </c>
@@ -1373,7 +1408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>75</v>
       </c>
@@ -1389,7 +1424,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>76</v>
       </c>
@@ -1426,29 +1461,29 @@
         <v>2340000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="75">
         <v>0.05</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72">
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75">
         <v>0.05</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
       <c r="K10" s="35"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>80</v>
       </c>
@@ -1466,7 +1501,7 @@
       <c r="K11" s="35"/>
       <c r="L11" s="45"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>82</v>
       </c>
@@ -1486,7 +1521,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>84</v>
       </c>
@@ -1506,7 +1541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1562,7 @@
       </c>
       <c r="N14" s="50"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>86</v>
       </c>
@@ -1545,7 +1580,7 @@
       <c r="K15" s="35"/>
       <c r="L15" s="39"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>87</v>
       </c>
@@ -1561,7 +1596,7 @@
       <c r="K16" s="35"/>
       <c r="L16" s="39"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>88</v>
       </c>
@@ -1595,7 +1630,7 @@
       <c r="K17" s="38"/>
       <c r="L17" s="39"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
       <c r="C18" s="35"/>
@@ -1609,7 +1644,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="39"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>90</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
         <v>93</v>
       </c>
@@ -1677,75 +1712,75 @@
         <v>122900</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="76">
         <f>SUM(C9:F9)*C10</f>
         <v>58500</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73">
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76">
         <f>SUM(G9:J9)*G10</f>
         <v>58500</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
       <c r="K21" s="57"/>
       <c r="L21" s="58"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="77">
         <f>SUM(C20:F20)</f>
         <v>112900</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74">
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77">
         <f>SUM(G20:J20)</f>
         <v>10000</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="56"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>105</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="77">
         <f>MIN(C22,C21)</f>
         <v>58500</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74">
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77">
         <f>MIN(G22,G21)</f>
         <v>10000</v>
       </c>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
       <c r="K23" s="59"/>
       <c r="L23" s="60">
         <f>SUM(C23:J23)</f>
@@ -1753,27 +1788,27 @@
       </c>
       <c r="M23" s="61"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="77">
         <f>C22-C23</f>
         <v>54400</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74">
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77">
         <f>G22-G23</f>
         <v>0</v>
       </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="59"/>
       <c r="L24" s="60">
         <f>SUM(C24:J24)</f>
@@ -1781,7 +1816,7 @@
       </c>
       <c r="M24" s="61"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>99</v>
       </c>
@@ -1798,33 +1833,33 @@
       <c r="J25" s="62"/>
       <c r="K25" s="59"/>
       <c r="L25" s="41">
-        <f>MIN(SUM(L23:L24),L12)</f>
+        <f>MIN(L23+L24,MAX(L23,L12))</f>
         <v>70000</v>
       </c>
       <c r="M25" s="61"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="63" t="s">
         <v>103</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
       <c r="K26" s="64"/>
-      <c r="L26" s="76">
-        <f>L24+L23-L25</f>
+      <c r="L26" s="72">
+        <f>MIN(L14,IF(L23&lt;L25,L24+L23-L25,L24))</f>
         <v>52900</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="67"/>
       <c r="B27" s="65"/>
       <c r="C27" s="25"/>
@@ -1837,7 +1872,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="38"/>
     </row>
-    <row r="28" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="65"/>
       <c r="C28" s="25"/>
@@ -1850,7 +1885,7 @@
       <c r="J28" s="25"/>
       <c r="K28" s="66"/>
     </row>
-    <row r="29" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="22"/>
@@ -1863,7 +1898,7 @@
       <c r="J29" s="22"/>
       <c r="K29" s="38"/>
     </row>
-    <row r="30" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="40"/>
@@ -1876,7 +1911,7 @@
       <c r="J30" s="40"/>
       <c r="K30" s="56"/>
     </row>
-    <row r="31" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="40"/>
@@ -1889,7 +1924,7 @@
       <c r="J31" s="40"/>
       <c r="K31" s="38"/>
     </row>
-    <row r="32" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="48"/>
@@ -1902,7 +1937,7 @@
       <c r="J32" s="48"/>
       <c r="K32" s="57"/>
     </row>
-    <row r="33" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="48"/>
@@ -1915,7 +1950,7 @@
       <c r="J33" s="48"/>
       <c r="K33" s="56"/>
     </row>
-    <row r="34" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="22"/>
@@ -1928,7 +1963,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="38"/>
     </row>
-    <row r="35" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="38"/>
       <c r="C35" s="22"/>
@@ -1941,7 +1976,7 @@
       <c r="J35" s="22"/>
       <c r="K35" s="38"/>
     </row>
-    <row r="36" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="53"/>
@@ -1954,7 +1989,7 @@
       <c r="J36" s="53"/>
       <c r="K36" s="38"/>
     </row>
-    <row r="37" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="22"/>
@@ -1967,7 +2002,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="38"/>
     </row>
-    <row r="38" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="38"/>
       <c r="C38" s="22"/>
@@ -1980,7 +2015,7 @@
       <c r="J38" s="22"/>
       <c r="K38" s="38"/>
     </row>
-    <row r="39" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="40"/>
@@ -1993,7 +2028,7 @@
       <c r="J39" s="40"/>
       <c r="K39" s="56"/>
     </row>
-    <row r="40" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="40"/>
@@ -2006,7 +2041,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="56"/>
     </row>
-    <row r="41" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="40"/>
@@ -2019,7 +2054,7 @@
       <c r="J41" s="40"/>
       <c r="K41" s="56"/>
     </row>
-    <row r="42" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="22"/>
@@ -2032,11 +2067,11 @@
       <c r="J42" s="22"/>
       <c r="K42" s="38"/>
     </row>
-    <row r="43" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
     </row>
   </sheetData>
@@ -2060,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2070,39 +2105,39 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="11" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2119,7 +2154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>50</v>
       </c>
@@ -2136,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>110</v>
       </c>
@@ -2153,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -2176,7 +2211,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="H8" s="17"/>
@@ -2186,7 +2221,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="H9" s="17"/>
@@ -2196,7 +2231,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -2216,7 +2251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>58</v>
       </c>
@@ -2236,7 +2271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -2276,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2296,20 +2331,20 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -2320,7 +2355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -2345,7 +2380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -2369,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -2393,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -2417,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -2441,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>5</v>
       </c>
@@ -2465,7 +2500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>6</v>
       </c>
@@ -2489,7 +2524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>7</v>
       </c>
@@ -2513,7 +2548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>8</v>
       </c>
@@ -2537,17 +2572,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
@@ -2562,14 +2597,14 @@
       <c r="F32" s="15"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>1</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="73" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="15"/>
@@ -2577,12 +2612,12 @@
       <c r="F33" s="15"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2596,7 +2631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -2610,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -2624,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>1</v>
       </c>
@@ -2638,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>1</v>
       </c>
@@ -2652,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>1</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -2680,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>1</v>
       </c>
@@ -2694,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>1</v>
       </c>
@@ -2708,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -2722,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>1</v>
       </c>
@@ -2736,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>1</v>
       </c>
@@ -2750,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -2764,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -2778,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>1</v>
       </c>
@@ -2792,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -2806,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>1</v>
       </c>
@@ -2820,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>1</v>
       </c>
@@ -2834,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -2848,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>1</v>
       </c>
@@ -2862,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>1</v>
       </c>
@@ -2876,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -2890,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -2918,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -2932,24 +2967,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>28</v>
       </c>
@@ -2966,7 +3001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -2983,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -3000,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -3017,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -3034,19 +3069,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>36</v>
       </c>
@@ -3090,7 +3125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>1</v>
       </c>
@@ -3134,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>2</v>
       </c>
@@ -3178,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>3</v>
       </c>
